--- a/YangNyang/Assets/Sheep/99.Data/Tables/Table_SheepSpawnRate.xlsx
+++ b/YangNyang/Assets/Sheep/99.Data/Tables/Table_SheepSpawnRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\YangNyang\YangNyang\Assets\Sheep\99.Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994EF002-5678-45F2-89FF-1AF602A48E31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9D577-1319-4187-8A02-1C3B05AB3A50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8820" xr2:uid="{061EF02A-54BD-424E-B140-B803DD308E6D}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -888,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -983,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1078,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1268,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1458,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1553,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -1648,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1743,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -1838,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -1933,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2028,7 +2028,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2123,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -2218,7 +2218,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2313,7 +2313,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -2408,7 +2408,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2503,7 +2503,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2598,7 +2598,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -2693,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2788,7 +2788,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2883,7 +2883,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -2978,7 +2978,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -3073,7 +3073,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -3168,7 +3168,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -3263,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>

--- a/YangNyang/Assets/Sheep/99.Data/Tables/Table_SheepSpawnRate.xlsx
+++ b/YangNyang/Assets/Sheep/99.Data/Tables/Table_SheepSpawnRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\YangNyang\YangNyang\Assets\Sheep\99.Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9D577-1319-4187-8A02-1C3B05AB3A50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC4D6BA-4675-425D-ADEA-C37D247D9C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8820" xr2:uid="{061EF02A-54BD-424E-B140-B803DD308E6D}"/>
   </bookViews>
@@ -398,14 +398,16 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="31" width="3.75" customWidth="1"/>
+    <col min="3" max="6" width="3.75" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="31" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -609,7 +611,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
@@ -618,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -808,7 +810,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
@@ -894,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -903,7 +905,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <v>30</v>
@@ -912,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -989,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -998,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1">
         <v>50</v>
@@ -1084,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -1102,7 +1104,7 @@
         <v>50</v>
       </c>
       <c r="J8" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -1179,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -1188,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
@@ -1197,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1">
         <v>30</v>
@@ -1274,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -1283,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -1292,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1">
         <v>50</v>
@@ -1369,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -1378,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -1402,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -1473,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1482,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
@@ -1559,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -1568,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
         <v>5</v>
@@ -1577,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -1592,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="O13" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P13" s="1">
         <v>10</v>
@@ -1654,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -1663,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
         <v>5</v>
@@ -1672,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" s="1">
         <v>5</v>
@@ -1687,7 +1689,7 @@
         <v>30</v>
       </c>
       <c r="O14" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P14" s="1">
         <v>30</v>
@@ -1749,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1758,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
@@ -1767,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K15" s="1">
         <v>5</v>
@@ -1782,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P15" s="1">
         <v>50</v>
@@ -1844,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1853,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
         <v>5</v>
@@ -1862,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K16" s="1">
         <v>5</v>
@@ -1939,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1948,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1">
         <v>5</v>
@@ -1957,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K17" s="1">
         <v>5</v>
@@ -1972,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="O17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P17" s="1">
         <v>10</v>
@@ -2034,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -2043,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1">
         <v>5</v>
@@ -2052,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="1">
         <v>5</v>
@@ -2067,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="O18" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P18" s="1">
         <v>5</v>
@@ -2129,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -2138,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1">
         <v>5</v>
@@ -2147,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
@@ -2162,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="O19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P19" s="1">
         <v>5</v>
@@ -2180,7 +2182,7 @@
         <v>50</v>
       </c>
       <c r="U19" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V19" s="1">
         <v>10</v>
@@ -2224,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -2233,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
         <v>5</v>
@@ -2242,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K20" s="1">
         <v>5</v>
@@ -2257,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="O20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P20" s="1">
         <v>5</v>
@@ -2275,7 +2277,7 @@
         <v>30</v>
       </c>
       <c r="U20" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V20" s="1">
         <v>30</v>
@@ -2319,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -2328,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1">
         <v>5</v>
@@ -2337,7 +2339,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="1">
         <v>5</v>
@@ -2352,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="O21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P21" s="1">
         <v>5</v>
@@ -2370,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="U21" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V21" s="1">
         <v>50</v>
@@ -2414,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -2423,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1">
         <v>5</v>
@@ -2432,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="1">
         <v>5</v>
@@ -2447,7 +2449,7 @@
         <v>5</v>
       </c>
       <c r="O22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P22" s="1">
         <v>5</v>
@@ -2480,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="Z22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA22" s="1">
         <v>0</v>
@@ -2509,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -2518,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -2527,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23" s="1">
         <v>5</v>
@@ -2542,7 +2544,7 @@
         <v>5</v>
       </c>
       <c r="O23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P23" s="1">
         <v>5</v>
@@ -2560,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="U23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V23" s="1">
         <v>10</v>
@@ -2604,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -2613,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1">
         <v>5</v>
@@ -2622,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K24" s="1">
         <v>5</v>
@@ -2637,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="O24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P24" s="1">
         <v>5</v>
@@ -2655,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="U24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V24" s="1">
         <v>5</v>
@@ -2670,7 +2672,7 @@
         <v>50</v>
       </c>
       <c r="Z24" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AA24" s="1">
         <v>10</v>
@@ -2699,7 +2701,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -2708,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1">
         <v>5</v>
@@ -2717,7 +2719,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K25" s="1">
         <v>5</v>
@@ -2732,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="O25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P25" s="1">
         <v>5</v>
@@ -2750,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="U25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V25" s="1">
         <v>5</v>
@@ -2765,7 +2767,7 @@
         <v>30</v>
       </c>
       <c r="Z25" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AA25" s="1">
         <v>30</v>
@@ -2794,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -2803,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1">
         <v>5</v>
@@ -2812,7 +2814,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K26" s="1">
         <v>5</v>
@@ -2827,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="O26" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P26" s="1">
         <v>5</v>
@@ -2845,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="U26" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V26" s="1">
         <v>5</v>
@@ -2860,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="Z26" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AA26" s="1">
         <v>50</v>
@@ -2889,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -2898,7 +2900,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1">
         <v>5</v>
@@ -2907,7 +2909,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K27" s="1">
         <v>5</v>
@@ -2922,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="O27" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P27" s="1">
         <v>5</v>
@@ -2940,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="U27" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V27" s="1">
         <v>5</v>
@@ -2984,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2993,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1">
         <v>5</v>
@@ -3002,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K28" s="1">
         <v>5</v>
@@ -3017,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="O28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P28" s="1">
         <v>5</v>
@@ -3035,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="U28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V28" s="1">
         <v>5</v>
@@ -3050,7 +3052,7 @@
         <v>5</v>
       </c>
       <c r="Z28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA28" s="1">
         <v>10</v>
@@ -3079,7 +3081,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
@@ -3088,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
@@ -3097,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29" s="1">
         <v>5</v>
@@ -3112,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="O29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P29" s="1">
         <v>5</v>
@@ -3130,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="U29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V29" s="1">
         <v>5</v>
@@ -3145,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="Z29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA29" s="1">
         <v>5</v>
@@ -3174,7 +3176,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -3183,7 +3185,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
@@ -3192,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K30" s="1">
         <v>5</v>
@@ -3207,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="O30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P30" s="1">
         <v>5</v>
@@ -3225,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="U30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V30" s="1">
         <v>5</v>
@@ -3240,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="Z30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA30" s="1">
         <v>5</v>
@@ -3269,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
@@ -3278,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1">
         <v>5</v>
@@ -3287,7 +3289,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K31" s="1">
         <v>5</v>
@@ -3302,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="O31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P31" s="1">
         <v>5</v>
@@ -3320,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="U31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V31" s="1">
         <v>5</v>
@@ -3335,7 +3337,7 @@
         <v>5</v>
       </c>
       <c r="Z31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA31" s="1">
         <v>5</v>
